--- a/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,103 +73,106 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -643,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9416666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -793,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9112271540469974</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.90625</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4745762711864407</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4631782945736434</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C10">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2416107382550336</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1043,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1361111111111111</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,21 +1091,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,21 +1141,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.0992063492063492</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>227</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.86875</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.8461538461538461</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.7352941176470589</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L25">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="M25">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.7238493723849372</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.7220338983050848</v>
+        <v>0.7108843537414966</v>
       </c>
       <c r="L27">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M27">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,24 +1526,24 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6461538461538462</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6285714285714286</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5842696629213483</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4871794871794872</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
